--- a/Hoadon/HDRa/7/Hoadondientu.xlsx
+++ b/Hoadon/HDRa/7/Hoadondientu.xlsx
@@ -193,15 +193,17 @@
     <col min="6" max="6" width="31.25" customWidth="true"/>
     <col min="7" max="7" width="31.25" customWidth="true"/>
     <col min="8" max="8" width="31.25" customWidth="true"/>
-    <col min="9" max="9" width="11.71875" customWidth="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true"/>
-    <col min="11" max="11" width="19.53125" customWidth="true"/>
-    <col min="12" max="12" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="31.25" customWidth="true"/>
+    <col min="10" max="10" width="31.25" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
     <col min="13" max="13" width="19.53125" customWidth="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true"/>
-    <col min="15" max="15" width="11.71875" customWidth="true"/>
-    <col min="16" max="16" width="19.53125" customWidth="true"/>
-    <col min="17" max="17" width="50.78125" customWidth="true"/>
+    <col min="14" max="14" width="19.53125" customWidth="true"/>
+    <col min="15" max="15" width="19.53125" customWidth="true"/>
+    <col min="16" max="16" width="11.71875" customWidth="true"/>
+    <col min="17" max="17" width="11.71875" customWidth="true"/>
+    <col min="18" max="18" width="19.53125" customWidth="true"/>
+    <col min="19" max="19" width="50.78125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -214,7 +216,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 01/07/2025 đến ngày 12/07/2025</t>
+          <t>Từ ngày 01/07/2025 đến ngày 05/07/2025</t>
         </is>
       </c>
     </row>
@@ -246,60 +248,70 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
+          <t>MST người bán/MST người xuất hàng</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Tên người bán/Tên người xuất hàng</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
           <t>MST người mua/MST người nhận hàng</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Tên người mua/Tên người nhận hàng</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Địa chỉ người mua</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chưa thuế</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thuế</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chiết khấu thương mại</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền phí</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thanh toán</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>Đơn vị tiền tệ</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>Tỷ giá</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>Trạng thái hóa đơn</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Kết quả kiểm tra hóa đơn</t>
         </is>
@@ -316,63 +328,73 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>C25TTE</t>
+          <t>C25TAA</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>3500102414</t>
+          <t>3502501171</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>LIÊN DOANH VIỆT- NGA VIETSOVPETRO</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>105 Lê Lợi, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam.</t>
-        </is>
-      </c>
-      <c r="I7" s="13" t="n">
-        <v>4200000.0</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <v>336000.0</v>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>3502496186</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH ĐẦU TƯ BIỂN NGỌC</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>Số 71 Nguyễn Sáng, Phường 10, Thành phố Vũng Tàu, Tỉnh Bà Rịa - Vũng Tàu, Việt Nam</t>
+        </is>
       </c>
       <c r="K7" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="13"/>
+        <v>5613636.0</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>561364.0</v>
+      </c>
       <c r="M7" s="13" t="n">
-        <v>4536000.0</v>
-      </c>
-      <c r="N7" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="O7" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P7" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn mới</t>
-        </is>
-      </c>
-      <c r="Q7" s="6" t="inlineStr">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="n">
+        <v>6175000.0</v>
+      </c>
+      <c r="P7" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>Đã cấp mã hóa đơn</t>
         </is>
@@ -389,63 +411,69 @@
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>C25TTE</t>
+          <t>C25TAA</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>3501584785</t>
+          <t>3502501171</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>LIÊN DOANH VIỆT - NGA VIETSOVPETRO - HỢP ĐỒNG DẦU KHÍ LÔ 04-3</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>Số 105 Lê Lợi, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <v>0.0</v>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>TẠP HÓA FHOUSE</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>NV33-Hàng Điều 5, Khu Khang Linh, Phường Rạch Dừa, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
       </c>
       <c r="K8" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="13"/>
+        <v>1649999.0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>132001.0</v>
+      </c>
       <c r="M8" s="13" t="n">
         <v>0.0</v>
       </c>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="O8" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P8" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn điều chỉnh</t>
-        </is>
-      </c>
-      <c r="Q8" s="6" t="inlineStr">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="n">
+        <v>1782000.0</v>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>Đã cấp mã hóa đơn</t>
         </is>
@@ -462,63 +490,3495 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>C25TTE</t>
+          <t>C25TAA</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>3500471309</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH PHAN VĂN MẠNH</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>2 Trần Bình Trọng, Phường Tam Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>3478241.0</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>278259.0</v>
+      </c>
+      <c r="M9" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="n">
+        <v>3756500.0</v>
+      </c>
+      <c r="P9" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>8053244195</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH TRỊNH THỊ THÁI NINH (THÀNH CÔNG)</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>650 đường 30/4, Phường Rạch Dừa,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>2094908.0</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>167592.0</v>
+      </c>
+      <c r="M10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="n">
+        <v>2262500.0</v>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>3501146608-001</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH TẠP HÓA NGỌC HIẾU</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>1018 đường 30/4, Phường Phước Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>4418981.0</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>353519.0</v>
+      </c>
+      <c r="M11" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="n">
+        <v>4772500.0</v>
+      </c>
+      <c r="P11" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q11" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>8036697420</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH QUỐC TUẤN</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>Số 18B Đường Bến Nôm, Phường Rạch Dừa, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>5819908.0</v>
+      </c>
+      <c r="L12" s="13" t="n">
+        <v>465592.0</v>
+      </c>
+      <c r="M12" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="n">
+        <v>6285500.0</v>
+      </c>
+      <c r="P12" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q12" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>Chị Thủy</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>26 Hồ Biểu Chánh, phường Tam Thắng, Thành phố Hồ CHí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>645833.0</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>51667.0</v>
+      </c>
+      <c r="M13" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="n">
+        <v>697500.0</v>
+      </c>
+      <c r="P13" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q13" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R13" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S13" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>TẠP HÓA MINH HẰNG</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>45/7 Thùy Vân, phường Vũng Tàu, thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>1527357.0</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>141643.0</v>
+      </c>
+      <c r="M14" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13" t="n">
+        <v>1669000.0</v>
+      </c>
+      <c r="P14" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q14" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S14" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>ĐỖ THỊ NỞ</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>Số 12 Huỳnh Văn Hớn, Phường Rạch Dừa, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="n">
+        <v>716203.0</v>
+      </c>
+      <c r="L15" s="13" t="n">
+        <v>57297.0</v>
+      </c>
+      <c r="M15" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="n">
+        <v>773500.0</v>
+      </c>
+      <c r="P15" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q15" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>3500132232</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>Hộ Kinh Doanh Thùy Hương</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>Số 245A đường Lê Lợi, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K16" s="13" t="n">
+        <v>2.6111111E7</v>
+      </c>
+      <c r="L16" s="13" t="n">
+        <v>2088889.0</v>
+      </c>
+      <c r="M16" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="n">
+        <v>2.82E7</v>
+      </c>
+      <c r="P16" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q16" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>09/07/2025</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>3501584785</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>LIÊN DOANH VIỆT - NGA VIETSOVPETRO - HỢP ĐỒNG DẦU KHÍ LÔ 04-3</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>Số 105 Lê Lợi, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam</t>
-        </is>
-      </c>
-      <c r="I9" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="O9" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P9" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn điều chỉnh</t>
-        </is>
-      </c>
-      <c r="Q9" s="6" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr">
+        <is>
+          <t>3501783050</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>DOANH NGHIỆP TƯ NHÂN THƯƠNG MẠI SAO ANH</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Số 669A Nguyễn An Ninh, Phường Tam Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K17" s="13" t="n">
+        <v>4425926.0</v>
+      </c>
+      <c r="L17" s="13" t="n">
+        <v>354074.0</v>
+      </c>
+      <c r="M17" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="n">
+        <v>4780000.0</v>
+      </c>
+      <c r="P17" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q17" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>Tạp hóa 165S</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>165S Đô Lương, Phường Phước Thắng, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K18" s="13" t="n">
+        <v>587036.0</v>
+      </c>
+      <c r="L18" s="13" t="n">
+        <v>46964.0</v>
+      </c>
+      <c r="M18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="n">
+        <v>634000.0</v>
+      </c>
+      <c r="P18" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q18" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>0316407289</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH ZEUS TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>Tầng 2, Số 21 Đường Võ Trường Toản, Phường Thảo Điền, Thành phố Thủ Đức, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K19" s="13" t="n">
+        <v>486111.0</v>
+      </c>
+      <c r="L19" s="13" t="n">
+        <v>38889.0</v>
+      </c>
+      <c r="M19" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="n">
+        <v>525000.0</v>
+      </c>
+      <c r="P19" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q19" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr">
+        <is>
+          <t>3502410333</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ KỸ THUẬT THẾ ANH</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>47/11 Lưu Hữu Phước, Phường Rạch Dừa, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K20" s="13" t="n">
+        <v>1932407.0</v>
+      </c>
+      <c r="L20" s="13" t="n">
+        <v>154593.0</v>
+      </c>
+      <c r="M20" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13" t="n">
+        <v>2087000.0</v>
+      </c>
+      <c r="P20" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q20" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr">
+        <is>
+          <t>3501783050</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>DOANH NGHIỆP TƯ NHÂN THƯƠNG MẠI SAO ANH</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>Số 669A Nguyễn An Ninh, Phường Tam Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K21" s="13" t="n">
+        <v>4502315.0</v>
+      </c>
+      <c r="L21" s="13" t="n">
+        <v>360185.0</v>
+      </c>
+      <c r="M21" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="n">
+        <v>4862500.0</v>
+      </c>
+      <c r="P21" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q21" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R21" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>Vũ Quang Thiện</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>1216/50 Đường 30/4, Phường Phước Thắng. Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K22" s="13" t="n">
+        <v>1439352.0</v>
+      </c>
+      <c r="L22" s="13" t="n">
+        <v>115148.0</v>
+      </c>
+      <c r="M22" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13" t="n">
+        <v>1554500.0</v>
+      </c>
+      <c r="P22" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q22" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S22" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H23" s="7" t="inlineStr">
+        <is>
+          <t>3501666653</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN THƯƠNG MẠI BÁ HUY</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>806/A29 đường 30/4, Phường Phước Thắng, TP Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K23" s="13" t="n">
+        <v>1398148.0</v>
+      </c>
+      <c r="L23" s="13" t="n">
+        <v>111852.0</v>
+      </c>
+      <c r="M23" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="n">
+        <v>1510000.0</v>
+      </c>
+      <c r="P23" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q23" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S23" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>Lê Như Ý</t>
+        </is>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>Số 128/23 đường Hoàng Hoa Thám, phường Vũng Tàu, thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K24" s="13" t="n">
+        <v>1865741.0</v>
+      </c>
+      <c r="L24" s="13" t="n">
+        <v>149259.0</v>
+      </c>
+      <c r="M24" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="n">
+        <v>2015000.0</v>
+      </c>
+      <c r="P24" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q24" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R24" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S24" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>HỒNG VUI</t>
+        </is>
+      </c>
+      <c r="J25" s="6" t="inlineStr">
+        <is>
+          <t>36 Ngô Đức Kế, Phường Tam Thắng, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K25" s="13" t="n">
+        <v>5609091.0</v>
+      </c>
+      <c r="L25" s="13" t="n">
+        <v>560909.0</v>
+      </c>
+      <c r="M25" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="n">
+        <v>6170000.0</v>
+      </c>
+      <c r="P25" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q25" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R25" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S25" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H26" s="7" t="inlineStr">
+        <is>
+          <t>3502460239</t>
+        </is>
+      </c>
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH TẠP HOÁ NGỌC HẠNH</t>
+        </is>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>44 Lương Văn Nho, Phường Tam Thắng, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K26" s="13" t="n">
+        <v>6886364.0</v>
+      </c>
+      <c r="L26" s="13" t="n">
+        <v>688636.0</v>
+      </c>
+      <c r="M26" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13" t="n">
+        <v>7575000.0</v>
+      </c>
+      <c r="P26" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q26" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R26" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S26" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>NGUYỄN QUỐC VŨ</t>
+        </is>
+      </c>
+      <c r="J27" s="6" t="inlineStr">
+        <is>
+          <t>E3-3/4 TT khu đô thị Chí Linh, phường Tam Thắng, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K27" s="13" t="n">
+        <v>8474074.0</v>
+      </c>
+      <c r="L27" s="13" t="n">
+        <v>677926.0</v>
+      </c>
+      <c r="M27" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="n">
+        <v>9152000.0</v>
+      </c>
+      <c r="P27" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q27" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R27" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S27" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H28" s="7" t="inlineStr">
+        <is>
+          <t>3500703912</t>
+        </is>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>NGUYỄN BÁ NHƯ (TẠP HÓA DUYÊN)</t>
+        </is>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>Số 52 đường Nguyễn Văn Trỗi, Phường Vũng Tàu,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K28" s="13" t="n">
+        <v>3518518.0</v>
+      </c>
+      <c r="L28" s="13" t="n">
+        <v>281482.0</v>
+      </c>
+      <c r="M28" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13" t="n">
+        <v>3800000.0</v>
+      </c>
+      <c r="P28" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q28" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R28" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S28" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H29" s="7" t="inlineStr">
+        <is>
+          <t>3500301071</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH DUNG HIẾU</t>
+        </is>
+      </c>
+      <c r="J29" s="6" t="inlineStr">
+        <is>
+          <t>38A đường Phước Thắng, Phường Phước Thắng, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K29" s="13" t="n">
+        <v>2670370.0</v>
+      </c>
+      <c r="L29" s="13" t="n">
+        <v>213630.0</v>
+      </c>
+      <c r="M29" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="n">
+        <v>2884000.0</v>
+      </c>
+      <c r="P29" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q29" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R29" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>ĐÀO THỊ DUNG</t>
+        </is>
+      </c>
+      <c r="J30" s="6" t="inlineStr">
+        <is>
+          <t>126/3B Đô Lương ,Phường Phước Thắng, Thành Phố Hồ Chí Minh, VIệt Nam</t>
+        </is>
+      </c>
+      <c r="K30" s="13" t="n">
+        <v>2.0751853E7</v>
+      </c>
+      <c r="L30" s="13" t="n">
+        <v>1660147.0</v>
+      </c>
+      <c r="M30" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13" t="n">
+        <v>2.2412E7</v>
+      </c>
+      <c r="P30" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q30" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R30" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S30" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>SẠP RAU 157 ĐÔ LƯƠNG</t>
+        </is>
+      </c>
+      <c r="J31" s="6" t="inlineStr">
+        <is>
+          <t>157 Đô Lương, Phường Phước Thắng, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K31" s="13" t="n">
+        <v>2664351.0</v>
+      </c>
+      <c r="L31" s="13" t="n">
+        <v>213149.0</v>
+      </c>
+      <c r="M31" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="n">
+        <v>2877500.0</v>
+      </c>
+      <c r="P31" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q31" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R31" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S31" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>3502417787</t>
+        </is>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN THƯƠNG MẠI DỊCH VỤ PHONG VŨ VINSUN</t>
+        </is>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>I1 Thái Văn Lung, Khu Á Châu, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K32" s="13" t="n">
+        <v>3240741.0</v>
+      </c>
+      <c r="L32" s="13" t="n">
+        <v>259259.0</v>
+      </c>
+      <c r="M32" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13" t="n">
+        <v>3500000.0</v>
+      </c>
+      <c r="P32" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q32" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R32" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S32" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>3502417787</t>
+        </is>
+      </c>
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN THƯƠNG MẠI DỊCH VỤ PHONG VŨ VINSUN</t>
+        </is>
+      </c>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>I1 Thái Văn Lung, Khu Á Châu, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K33" s="13" t="n">
+        <v>500000.0</v>
+      </c>
+      <c r="L33" s="13" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="M33" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13" t="n">
+        <v>540000.0</v>
+      </c>
+      <c r="P33" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q33" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R33" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S33" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6" t="inlineStr">
+        <is>
+          <t>Trần Vi Tâm</t>
+        </is>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>312 Trường Công Định, Phường 8, Thành Phố Vũng Tàu, Tỉnh Bà Rịa -Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="K34" s="13" t="n">
+        <v>899074.0</v>
+      </c>
+      <c r="L34" s="13" t="n">
+        <v>71926.0</v>
+      </c>
+      <c r="M34" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13" t="n">
+        <v>971000.0</v>
+      </c>
+      <c r="P34" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q34" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R34" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S34" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>3500704137</t>
+        </is>
+      </c>
+      <c r="I35" s="6" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ MINH HỒNG (HỒNG MAI)</t>
+        </is>
+      </c>
+      <c r="J35" s="6" t="inlineStr">
+        <is>
+          <t>Số 79A, Phan Chu Trinh, Phường Vũng Tàu, Tỉnh TP Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K35" s="13" t="n">
+        <v>3593468.0</v>
+      </c>
+      <c r="L35" s="13" t="n">
+        <v>329032.0</v>
+      </c>
+      <c r="M35" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13" t="n">
+        <v>3922500.0</v>
+      </c>
+      <c r="P35" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q35" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R35" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S35" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6" t="inlineStr">
+        <is>
+          <t>LÂM THỊ LIÊN</t>
+        </is>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>96A Phước Thắng,Phường Phước Thắng, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K36" s="13" t="n">
+        <v>2517592.0</v>
+      </c>
+      <c r="L36" s="13" t="n">
+        <v>201408.0</v>
+      </c>
+      <c r="M36" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13" t="n">
+        <v>2719000.0</v>
+      </c>
+      <c r="P36" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q36" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R36" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S36" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>8330739682-001</t>
+        </is>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH NGUYỄN VĂN HÒA (PHƯỜNG 11)</t>
+        </is>
+      </c>
+      <c r="J37" s="6" t="inlineStr">
+        <is>
+          <t>1151/10 đường 30/4, Phường Phước Thắng, TP Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K37" s="13" t="n">
+        <v>2674999.0</v>
+      </c>
+      <c r="L37" s="13" t="n">
+        <v>214001.0</v>
+      </c>
+      <c r="M37" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13" t="n">
+        <v>2889000.0</v>
+      </c>
+      <c r="P37" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q37" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R37" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S37" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>PHAN NGUYỄN THỊ HỒNG TÂM</t>
+        </is>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
+        <is>
+          <t>1068 Đường 30/4, Phường Phước Thắng , Thành Phố Hỗ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K38" s="13" t="n">
+        <v>2747222.0</v>
+      </c>
+      <c r="L38" s="13" t="n">
+        <v>219778.0</v>
+      </c>
+      <c r="M38" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13" t="n">
+        <v>2967000.0</v>
+      </c>
+      <c r="P38" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q38" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R38" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S38" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H39" s="7" t="inlineStr">
+        <is>
+          <t>3502347106</t>
+        </is>
+      </c>
+      <c r="I39" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH TRẦN THỊ NGỌC TUYỀN</t>
+        </is>
+      </c>
+      <c r="J39" s="6" t="inlineStr">
+        <is>
+          <t>Ki Ốt số 01 (Phía ngoài chợ P. Thắng Nhất), Phường Rạch Dừa, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K39" s="13" t="n">
+        <v>2885185.0</v>
+      </c>
+      <c r="L39" s="13" t="n">
+        <v>230815.0</v>
+      </c>
+      <c r="M39" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13" t="n">
+        <v>3116000.0</v>
+      </c>
+      <c r="P39" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q39" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R39" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S39" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>3502215935</t>
+        </is>
+      </c>
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH PHAN NGỌC LÂM</t>
+        </is>
+      </c>
+      <c r="J40" s="6" t="inlineStr">
+        <is>
+          <t>17 đường Phước Thắng, Phường Phước Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K40" s="13" t="n">
+        <v>3504630.0</v>
+      </c>
+      <c r="L40" s="13" t="n">
+        <v>280370.0</v>
+      </c>
+      <c r="M40" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13" t="n">
+        <v>3785000.0</v>
+      </c>
+      <c r="P40" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q40" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R40" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S40" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H41" s="7" t="inlineStr">
+        <is>
+          <t>040074000523</t>
+        </is>
+      </c>
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Trung</t>
+        </is>
+      </c>
+      <c r="J41" s="6" t="inlineStr">
+        <is>
+          <t>Số 157, đường Thùy Vân, Phường Vũng Tàu, TP Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K41" s="13" t="n">
+        <v>3054629.0</v>
+      </c>
+      <c r="L41" s="13" t="n">
+        <v>244371.0</v>
+      </c>
+      <c r="M41" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13" t="n">
+        <v>3299000.0</v>
+      </c>
+      <c r="P41" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q41" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R41" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S41" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H42" s="7" t="inlineStr">
+        <is>
+          <t>0316407289</t>
+        </is>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH ZEUS TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="J42" s="6" t="inlineStr">
+        <is>
+          <t>Tầng 2, Số 21 Đường Võ Trường Toản, Phường Thảo Điền, Thành phố Thủ Đức, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K42" s="13" t="n">
+        <v>4.85854376E8</v>
+      </c>
+      <c r="L42" s="13" t="n">
+        <v>4.0245624E7</v>
+      </c>
+      <c r="M42" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13" t="n">
+        <v>5.261E8</v>
+      </c>
+      <c r="P42" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q42" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R42" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S42" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H43" s="7" t="inlineStr">
+        <is>
+          <t>8726327401-001</t>
+        </is>
+      </c>
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH VŨ THỊ HỒNG MINH</t>
+        </is>
+      </c>
+      <c r="J43" s="6" t="inlineStr">
+        <is>
+          <t>52 đường Hoàng Văn Thụ, Phường Tam Thắng, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K43" s="13" t="n">
+        <v>886112.0</v>
+      </c>
+      <c r="L43" s="13" t="n">
+        <v>70888.0</v>
+      </c>
+      <c r="M43" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13" t="n">
+        <v>957000.0</v>
+      </c>
+      <c r="P43" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q43" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R43" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S43" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="inlineStr">
+        <is>
+          <t>8426335916-001</t>
+        </is>
+      </c>
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH CỬA HÀNG TỰ CHỌN THANH HÀ</t>
+        </is>
+      </c>
+      <c r="J44" s="6" t="inlineStr">
+        <is>
+          <t>71-73 đường Lê Lợi, Phường Vũng Tàu, Thành Phố Hồ Chí Minh,Việt Nam</t>
+        </is>
+      </c>
+      <c r="K44" s="13" t="n">
+        <v>2616668.0</v>
+      </c>
+      <c r="L44" s="13" t="n">
+        <v>209332.0</v>
+      </c>
+      <c r="M44" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13" t="n">
+        <v>2826000.0</v>
+      </c>
+      <c r="P44" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q44" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R44" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S44" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H45" s="7" t="inlineStr">
+        <is>
+          <t>8065039105-001</t>
+        </is>
+      </c>
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH LÊ THỊ HUYỀN</t>
+        </is>
+      </c>
+      <c r="J45" s="6" t="inlineStr">
+        <is>
+          <t>126 đường Bình Giã, Phường Tam Thắng, TP Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K45" s="13" t="n">
+        <v>2392592.0</v>
+      </c>
+      <c r="L45" s="13" t="n">
+        <v>191408.0</v>
+      </c>
+      <c r="M45" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13" t="n">
+        <v>2584000.0</v>
+      </c>
+      <c r="P45" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q45" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R45" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S45" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D46" s="7" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="inlineStr">
+        <is>
+          <t>3502545901</t>
+        </is>
+      </c>
+      <c r="I46" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MINH CHÂU MART</t>
+        </is>
+      </c>
+      <c r="J46" s="6" t="inlineStr">
+        <is>
+          <t>Số 63 Đội Cấn, Phường Tam Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K46" s="13" t="n">
+        <v>3.6078705E7</v>
+      </c>
+      <c r="L46" s="13" t="n">
+        <v>2886295.0</v>
+      </c>
+      <c r="M46" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13" t="n">
+        <v>3.8965E7</v>
+      </c>
+      <c r="P46" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q46" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R46" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S46" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Thanh Trang</t>
+        </is>
+      </c>
+      <c r="J47" s="6" t="inlineStr">
+        <is>
+          <t>16 Trần Quý Cáp,Phường Vũng Tàu, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K47" s="13" t="n">
+        <v>2371759.0</v>
+      </c>
+      <c r="L47" s="13" t="n">
+        <v>189741.0</v>
+      </c>
+      <c r="M47" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13" t="n">
+        <v>2561500.0</v>
+      </c>
+      <c r="P47" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q47" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R47" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S47" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G48" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ THU THỦY</t>
+        </is>
+      </c>
+      <c r="J48" s="6" t="inlineStr">
+        <is>
+          <t>66 Võ Thị Sáu,Phường Vũng Tàu, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K48" s="13" t="n">
+        <v>2.3861111E7</v>
+      </c>
+      <c r="L48" s="13" t="n">
+        <v>1908889.0</v>
+      </c>
+      <c r="M48" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13" t="n">
+        <v>2.577E7</v>
+      </c>
+      <c r="P48" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q48" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R48" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S48" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6" t="inlineStr">
+        <is>
+          <t>TẠP HÓA 62</t>
+        </is>
+      </c>
+      <c r="J49" s="6" t="inlineStr">
+        <is>
+          <t>62 Phước Thắng, Phường Phước Thắng, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K49" s="13" t="n">
+        <v>5688048.0</v>
+      </c>
+      <c r="L49" s="13" t="n">
+        <v>500952.0</v>
+      </c>
+      <c r="M49" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13" t="n">
+        <v>6189000.0</v>
+      </c>
+      <c r="P49" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q49" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R49" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S49" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="inlineStr">
+        <is>
+          <t>3501783050</t>
+        </is>
+      </c>
+      <c r="I50" s="6" t="inlineStr">
+        <is>
+          <t>DOANH NGHIỆP TƯ NHÂN THƯƠNG MẠI SAO ANH</t>
+        </is>
+      </c>
+      <c r="J50" s="6" t="inlineStr">
+        <is>
+          <t>Số 669A Nguyễn An Ninh, Phường Tam Thắng,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K50" s="13" t="n">
+        <v>4322222.0</v>
+      </c>
+      <c r="L50" s="13" t="n">
+        <v>345778.0</v>
+      </c>
+      <c r="M50" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13" t="n">
+        <v>4668000.0</v>
+      </c>
+      <c r="P50" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q50" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R50" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S50" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>C25TAA</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="inlineStr">
+        <is>
+          <t>3500597573-001</t>
+        </is>
+      </c>
+      <c r="I51" s="6" t="inlineStr">
+        <is>
+          <t>HỘ KINH DOANH VŨ THỊ HỒNG LOAN (NGỌC BẢO)</t>
+        </is>
+      </c>
+      <c r="J51" s="6" t="inlineStr">
+        <is>
+          <t>13 đường Bùi Thiện Ngộ, Phường Rạch Dừa,Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="K51" s="13" t="n">
+        <v>1.431713E7</v>
+      </c>
+      <c r="L51" s="13" t="n">
+        <v>1145370.0</v>
+      </c>
+      <c r="M51" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13" t="n">
+        <v>1.54625E7</v>
+      </c>
+      <c r="P51" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q51" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R51" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S51" s="6" t="inlineStr">
         <is>
           <t>Đã cấp mã hóa đơn</t>
         </is>
@@ -526,8 +3986,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
